--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1442.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1442.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.824313585242624</v>
+        <v>1.438467860221863</v>
       </c>
       <c r="B1">
-        <v>2.194757021217977</v>
+        <v>3.517448663711548</v>
       </c>
       <c r="C1">
-        <v>2.954305860935079</v>
+        <v>5.267248630523682</v>
       </c>
       <c r="D1">
-        <v>1.777112549341235</v>
+        <v>1.723904609680176</v>
       </c>
       <c r="E1">
-        <v>0.6003236565369636</v>
+        <v>0.9659792184829712</v>
       </c>
     </row>
   </sheetData>
